--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -1359,38 +1359,85 @@
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="6">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
       <c r="B9" s="10" t="n">
-        <v>44363.7008096917</v>
-      </c>
-      <c r="C9" t="inlineStr">
+        <v>44363.7008096875</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>live_145_hotfix</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="5" t="n">
         <v>124</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="5" t="n">
         <v>122</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5" t="n">
         <v>1.49</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="6">
-      <c r="B10" s="8" t="n"/>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>44364.55006693287</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>145_data_hstry</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44364.61309472586</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>145_hstry_data</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>124</v>
+      </c>
+      <c r="E11" t="n">
+        <v>123</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
       <c r="B12" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -787,15 +787,15 @@
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
       <c r="B11" s="10" t="n">
-        <v>44365.51815398633</v>
-      </c>
-      <c r="C11" t="inlineStr">
+        <v>44365.51815398148</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>145_fnltstfrdy</t>
         </is>
@@ -803,13 +803,13 @@
       <c r="D11" s="9" t="n">
         <v>124</v>
       </c>
-      <c r="E11" t="n">
-        <v>124</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="E11" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>1.82</v>
       </c>
     </row>
@@ -1532,7 +1532,31 @@
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-06-18</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44365.76565310478</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>145_lstrnfdy</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>124</v>
+      </c>
+      <c r="E11" t="n">
+        <v>124</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="6">
       <c r="B12" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
@@ -490,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -792,7 +792,7 @@
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="8" t="n">
         <v>44365.51815398148</v>
       </c>
       <c r="C11" s="5" t="inlineStr">
@@ -800,7 +800,7 @@
           <t>145_fnltstfrdy</t>
         </is>
       </c>
-      <c r="D11" s="9" t="n">
+      <c r="D11" s="5" t="n">
         <v>124</v>
       </c>
       <c r="E11" s="5" t="n">
@@ -814,27 +814,166 @@
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>44368.71179173611</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>145_mndyto</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-24</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>44371.61486569444</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>146_fsttst</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>44372.69976127315</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>146_replica</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>44372.81545210648</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>146_msttomst</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.84</v>
+      </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="6">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="8" t="n"/>
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44375.72178944445</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>146_rgrsncycle</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="6">
-      <c r="B17" s="8" t="n"/>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44376.2696744213</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>146_finalrun</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="6">
       <c r="B18" s="8" t="n"/>
@@ -1197,8 +1336,31 @@
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="6">
-      <c r="B11" s="8" t="n"/>
-      <c r="D11" s="9" t="n"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44376.59035064137</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>146_beta</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>124</v>
+      </c>
+      <c r="E11" t="n">
+        <v>124</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
       <c r="B12" s="8" t="n"/>
@@ -1532,71 +1694,63 @@
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B11" s="10" t="n">
-        <v>44365.76565310478</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" s="8" t="n">
+        <v>44365.76565310185</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>145_lstrnfdy</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>124</v>
-      </c>
-      <c r="E11" t="n">
-        <v>124</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="D11" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>1.54</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-    </row>
-    <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-    </row>
-    <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="6">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="6">
-      <c r="A16" s="5" t="n"/>
-      <c r="B16" s="5" t="n"/>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
-      <c r="G16" s="5" t="n"/>
-    </row>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>44369.79404269676</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>145_hotfixtue</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="6"/>
+    <row r="14" ht="13.8" customHeight="1" s="6"/>
+    <row r="15" ht="15" customHeight="1" s="6"/>
+    <row r="16" ht="15" customHeight="1" s="6"/>
     <row r="17" ht="15" customHeight="1" s="6">
       <c r="B17" s="8" t="n"/>
       <c r="D17" s="9" t="n"/>
@@ -1627,7 +1781,7 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -95,7 +96,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -127,6 +128,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,7 +978,31 @@
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="6">
-      <c r="B18" s="8" t="n"/>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-06</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44383.75595357639</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>2.43</v>
+      </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="6">
       <c r="B19" s="8" t="n"/>
@@ -1336,15 +1362,15 @@
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="6">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
       <c r="B11" s="10" t="n">
-        <v>44376.59035064137</v>
-      </c>
-      <c r="C11" t="inlineStr">
+        <v>44376.59035063657</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>146_beta</t>
         </is>
@@ -1352,13 +1378,13 @@
       <c r="D11" s="9" t="n">
         <v>124</v>
       </c>
-      <c r="E11" t="n">
-        <v>124</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="E11" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>1.62</v>
       </c>
     </row>
@@ -1747,9 +1773,87 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="6"/>
-    <row r="14" ht="13.8" customHeight="1" s="6"/>
-    <row r="15" ht="15" customHeight="1" s="6"/>
+    <row r="13" ht="13.8" customHeight="1" s="6">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>44376.84535741898</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>146_livetst</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="6">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-02</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>44379.65299600695</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-07-08</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>44385.29706543169</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>146_earlyip</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>124</v>
+      </c>
+      <c r="E15" t="n">
+        <v>121</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
     <row r="16" ht="15" customHeight="1" s="6"/>
     <row r="17" ht="15" customHeight="1" s="6">
       <c r="B17" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -1005,19 +1004,139 @@
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="6">
-      <c r="B19" s="8" t="n"/>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44399.63219275463</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>147_tolive</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="6">
-      <c r="B20" s="8" t="n"/>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2021-08-14</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44422.57152018519</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>148_regression</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>3.18</v>
+      </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="6">
-      <c r="B21" s="8" t="n"/>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44440.7324131713</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>149_fstcyc</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>2.07</v>
+      </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="6">
-      <c r="B22" s="8" t="n"/>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2021-09-03</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44442.48905190972</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>149_regression</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="6">
-      <c r="B23" s="8" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2021-10-06</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44475.70126787035</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>151_regression</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>124</v>
+      </c>
+      <c r="E23" t="n">
+        <v>120</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="6">
       <c r="B24" s="8" t="n"/>
@@ -1389,16 +1508,85 @@
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="6">
-      <c r="B12" s="8" t="n"/>
-      <c r="D12" s="9" t="n"/>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44399.87277329861</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>147_beta</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>124</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>114</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>3.68</v>
+      </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="6">
-      <c r="B13" s="8" t="n"/>
-      <c r="D13" s="9" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-23</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44400.43711951389</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>147_frdy</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>124</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.54</v>
+      </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="6">
-      <c r="B14" s="8" t="n"/>
-      <c r="D14" s="9" t="n"/>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44424.5448253125</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>148_beta</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>124</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.81</v>
+      </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="6">
       <c r="B15" s="8" t="n"/>
@@ -1828,36 +2016,85 @@
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="6">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>2021-07-08</t>
         </is>
       </c>
       <c r="B15" s="11" t="n">
-        <v>44385.29706543169</v>
-      </c>
-      <c r="C15" t="inlineStr">
+        <v>44385.29706542824</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>146_earlyip</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>124</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E15" s="5" t="n">
         <v>121</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="5" t="n">
         <v>2.1</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="6"/>
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-23</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>44400.71868688658</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>147_live</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
     <row r="17" ht="15" customHeight="1" s="6">
-      <c r="B17" s="8" t="n"/>
-      <c r="D17" s="9" t="n"/>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44424.90273700232</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>148_live</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>124</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>2.45</v>
+      </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="6">
       <c r="B18" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -1112,40 +1112,112 @@
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="6">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>2021-10-06</t>
         </is>
       </c>
       <c r="B23" s="10" t="n">
-        <v>44475.70126787035</v>
-      </c>
-      <c r="C23" t="inlineStr">
+        <v>44475.70126787037</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>151_regression</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>124</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E23" s="5" t="n">
         <v>120</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="5" t="n">
         <v>2.35</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="6">
-      <c r="B24" s="8" t="n"/>
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44495.64759021991</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>152_fstcycle</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="6">
-      <c r="B25" s="8" t="n"/>
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44496.64631342592</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>152_scndcycle</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>3.55</v>
+      </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="6">
-      <c r="B26" s="8" t="n"/>
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44497.38627040509</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>152_fnlrgrsn</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>115</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>3.02</v>
+      </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="6">
       <c r="B27" s="8" t="n"/>
@@ -1589,8 +1661,31 @@
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
-      <c r="D15" s="9" t="n"/>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44497.62344630787</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>152_beta</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>124</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.03</v>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="6">
       <c r="B16" s="8" t="n"/>
@@ -2097,8 +2192,31 @@
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="6">
-      <c r="B18" s="8" t="n"/>
-      <c r="D18" s="9" t="n"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44497.85925816281</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>152_livetest</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>124</v>
+      </c>
+      <c r="E18" t="n">
+        <v>118</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.56</v>
+      </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="6">
       <c r="B19" s="8" t="n"/>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -489,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -1220,21 +1221,167 @@
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="6">
-      <c r="B27" s="8" t="n"/>
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-17</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44517.60917555555</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>153rsgn</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="6">
-      <c r="B28" s="8" t="n"/>
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44536.45013538194</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>154_fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>4.72</v>
+      </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="6">
-      <c r="B29" s="8" t="n"/>
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44581.40454857639</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>156_fnlrsgn</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="6">
-      <c r="B30" s="8" t="n"/>
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44589.58857914352</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>156audit</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>2.01</v>
+      </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="6">
-      <c r="B31" s="8" t="n"/>
-    </row>
-    <row r="32" ht="13.8" customHeight="1" s="6"/>
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44599.79000087963</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>secondcycle_157</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="32" ht="13.8" customHeight="1" s="6">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>44600.4171243235</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>157_fnl</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>124</v>
+      </c>
+      <c r="E32" t="n">
+        <v>122</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
     <row r="33" ht="13.8" customHeight="1" s="6"/>
     <row r="34" ht="13.8" customHeight="1" s="6"/>
     <row r="35" ht="13.8" customHeight="1" s="6"/>
@@ -1254,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1688,7 +1835,112 @@
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="6">
-      <c r="B16" s="8" t="n"/>
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44518.5776128125</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>153_beta</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>109</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>44536.56777321759</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>154_beta</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>116</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>44553.52116800926</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>155_beta</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B19" s="11" t="n">
+        <v>44581.57798393518</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>156_beta</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
@@ -1704,7 +1956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2192,15 +2444,15 @@
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="6">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
       <c r="B18" s="10" t="n">
-        <v>44497.85925816281</v>
-      </c>
-      <c r="C18" t="inlineStr">
+        <v>44497.85925815972</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>152_livetest</t>
         </is>
@@ -2208,22 +2460,123 @@
       <c r="D18" s="9" t="n">
         <v>124</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="5" t="n">
         <v>118</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="5" t="n">
         <v>2.56</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="6">
-      <c r="B19" s="8" t="n"/>
-      <c r="D19" s="9" t="n"/>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-23</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44523.44334949074</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>153_live</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>124</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="6">
-      <c r="B20" s="8" t="n"/>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44536.86841462963</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>154_live</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>44553.80299631944</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>155_live</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>44581.82097797454</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>156_live</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>2.66</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -1356,37 +1356,221 @@
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="6">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>2022-02-08</t>
         </is>
       </c>
       <c r="B32" s="11" t="n">
-        <v>44600.4171243235</v>
-      </c>
-      <c r="C32" t="inlineStr">
+        <v>44600.41712432871</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>157_fnl</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>124</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E32" s="5" t="n">
         <v>122</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="5" t="n">
         <v>2.29</v>
       </c>
     </row>
-    <row r="33" ht="13.8" customHeight="1" s="6"/>
-    <row r="34" ht="13.8" customHeight="1" s="6"/>
-    <row r="35" ht="13.8" customHeight="1" s="6"/>
-    <row r="36" ht="13.8" customHeight="1" s="6"/>
-    <row r="37" ht="13.8" customHeight="1" s="6"/>
+    <row r="33" ht="13.8" customHeight="1" s="6">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>44622.67522109954</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>158scndcycle</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>111</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="34" ht="13.8" customHeight="1" s="6">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>44623.43742832176</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>158fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="35" ht="13.8" customHeight="1" s="6">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-24</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>44644.71920079861</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>159fstcycle</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="36" ht="13.8" customHeight="1" s="6">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>44645.65907008102</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>159scndcycle</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="37" ht="13.8" customHeight="1" s="6">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B37" s="11" t="n">
+        <v>44648.3830015162</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>159fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-29</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>44649.70553806713</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>nearlocationcloud</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>44650.5116012037</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>160coludtest</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1401,7 +1585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1942,6 +2126,87 @@
         <v>1.98</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>44623.56728818287</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>158_beta</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B21" s="11" t="n">
+        <v>44648.55403461806</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>159beta</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>44663.56021978009</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>160_beta</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1956,7 +2221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2576,6 +2841,87 @@
       </c>
       <c r="G22" s="5" t="n">
         <v>2.66</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>44623.85193543982</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>158_live</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>44648.81054454861</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>159live</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>44663.80923317529</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>160_live</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>124</v>
+      </c>
+      <c r="E25" t="n">
+        <v>124</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -1571,6 +1571,141 @@
         <v>2.12</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>44739.68413891204</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>163_finalrun</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>44740.33579457176</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>163_relday</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>44755.42609541667</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>164_fstcycle</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>44755.6106240162</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>164_scndcycle</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>44756.49165939815</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>164finalrun</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1585,7 +1720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2207,6 +2342,60 @@
         <v>1.67</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B23" s="11" t="n">
+        <v>44740.50958607639</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>163_beta</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>44756.52765194445</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>164_beta</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2221,7 +2410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2898,30 +3087,84 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
       <c r="B25" s="11" t="n">
-        <v>44663.80923317529</v>
-      </c>
-      <c r="C25" t="inlineStr">
+        <v>44663.8092331713</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>160_live</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>124</v>
-      </c>
-      <c r="E25" t="n">
-        <v>124</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="D25" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F25" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="5" t="n">
         <v>1.71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>44740.84252221065</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>163_live</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>44756.81026972443</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>164_live</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>124</v>
+      </c>
+      <c r="E27" t="n">
+        <v>122</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.27</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -1706,6 +1706,141 @@
         <v>1.72</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B45" s="11" t="n">
+        <v>44775.64484304399</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>165_fstcycle</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B46" s="11" t="n">
+        <v>44776.65965795139</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>165_scndcycle</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B47" s="11" t="n">
+        <v>44777.38325747685</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>165_finalrun</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B48" s="11" t="n">
+        <v>44795.65727164352</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>166fstcycle</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B49" s="11" t="n">
+        <v>44796.89554321759</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>166cyclescnd</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1720,7 +1855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2396,6 +2531,60 @@
         <v>1.87</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B25" s="11" t="n">
+        <v>44777.5532071412</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>165beta</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>44797.51717090278</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>166_beta</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2410,7 +2599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3141,30 +3330,84 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
       <c r="B27" s="11" t="n">
-        <v>44756.81026972443</v>
-      </c>
-      <c r="C27" t="inlineStr">
+        <v>44756.81026972222</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>164_live</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>124</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E27" s="5" t="n">
         <v>122</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="5" t="n">
         <v>3.27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>44777.8072408912</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>165_live</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>44797.91147664575</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>166_live</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>124</v>
+      </c>
+      <c r="E29" t="n">
+        <v>123</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.88</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -1841,6 +1841,87 @@
         <v>1.82</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B50" s="11" t="n">
+        <v>44820.60741325231</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>fstcyc167</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B51" s="11" t="n">
+        <v>44823.62193363426</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>scndcycle167</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B52" s="11" t="n">
+        <v>44824.3675578125</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>finalrun167</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1855,7 +1936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2585,6 +2666,33 @@
         <v>1.79</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B27" s="11" t="n">
+        <v>44824.51364038914</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>beta167</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>124</v>
+      </c>
+      <c r="E27" t="n">
+        <v>124</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2599,7 +2707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3384,30 +3492,57 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>2022-08-24</t>
         </is>
       </c>
       <c r="B29" s="11" t="n">
-        <v>44797.91147664575</v>
-      </c>
-      <c r="C29" t="inlineStr">
+        <v>44797.91147664352</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>166_live</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>124</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E29" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="5" t="n">
         <v>1.88</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>44818.4115687963</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>livehtfxsep166</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -1922,6 +1922,114 @@
         <v>2.07</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B53" s="11" t="n">
+        <v>44844.597164375</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>scndcycl168</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B54" s="11" t="n">
+        <v>44845.38972075231</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>168fnlrun</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B55" s="11" t="n">
+        <v>44868.44392149305</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>finalrun169</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B56" s="11" t="n">
+        <v>44893.61786521353</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>170scndcycle</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>124</v>
+      </c>
+      <c r="E56" t="n">
+        <v>122</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1936,7 +2044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2667,30 +2775,84 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
       <c r="B27" s="11" t="n">
-        <v>44824.51364038914</v>
-      </c>
-      <c r="C27" t="inlineStr">
+        <v>44824.51364039352</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>beta167</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>124</v>
-      </c>
-      <c r="E27" t="n">
-        <v>124</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="D27" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F27" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="5" t="n">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>44845.54706429398</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>beta168</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>44868.5199589699</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>beta169</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>3.44</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
@@ -2707,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3543,6 +3705,87 @@
       </c>
       <c r="G30" s="5" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B31" s="11" t="n">
+        <v>44824.86603305556</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>live167</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>44845.84756688657</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>live168</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>44868.82849104167</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>live169</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>5.39</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -2004,30 +2004,111 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="5" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
       <c r="B56" s="11" t="n">
-        <v>44893.61786521353</v>
-      </c>
-      <c r="C56" t="inlineStr">
+        <v>44893.61786520833</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
         <is>
           <t>170scndcycle</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>124</v>
-      </c>
-      <c r="E56" t="n">
+      <c r="D56" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E56" s="5" t="n">
         <v>122</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56" s="5" t="n">
         <v>1.83</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="B57" s="11" t="n">
+        <v>44914.48036023148</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>finalrun171</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B58" s="11" t="n">
+        <v>44945.66801206019</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>scnd172release</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B59" s="11" t="n">
+        <v>44946.39841563658</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>finalrun172</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -2044,7 +2125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2855,6 +2936,60 @@
         <v>3.44</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>44894.53730189815</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>170beta</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B31" s="11" t="n">
+        <v>44946.56892892361</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>172beta</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2869,7 +3004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3786,6 +3921,60 @@
       </c>
       <c r="G33" s="5" t="n">
         <v>5.39</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>44894.88229775463</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>170live</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>44946.89168507088</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>172live</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>124</v>
+      </c>
+      <c r="E35" t="n">
+        <v>123</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.07</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -2111,6 +2111,60 @@
         <v>1.93</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B60" s="11" t="n">
+        <v>44974.43709384259</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>173cyclefst</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B61" s="11" t="n">
+        <v>44977.40212696759</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>173fnlrun</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2125,7 +2179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2990,6 +3044,33 @@
         <v>1.61</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>44977.58745057871</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>173beta</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3004,7 +3085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3951,30 +4032,57 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
       <c r="B35" s="11" t="n">
-        <v>44946.89168507088</v>
-      </c>
-      <c r="C35" t="inlineStr">
+        <v>44946.89168506944</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>172live</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>124</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E35" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="5" t="n">
         <v>2.07</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>44977.83446887095</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>live173</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>124</v>
+      </c>
+      <c r="E36" t="n">
+        <v>123</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -2165,6 +2165,168 @@
         <v>4.33</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
+      </c>
+      <c r="B62" s="11" t="n">
+        <v>44994.61513378472</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>174fstcycle</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="B63" s="11" t="n">
+        <v>44995.79170776621</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>174ffiinnalrun</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B64" s="11" t="n">
+        <v>44998.46589782408</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>174finalrun</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="B65" s="11" t="n">
+        <v>45015.71254118055</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>175scndcyc</t>
+        </is>
+      </c>
+      <c r="D65" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B66" s="11" t="n">
+        <v>45016.44677490741</v>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>175fnlrun</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B67" s="11" t="n">
+        <v>45028.5508363341</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>176fstrtail</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>124</v>
+      </c>
+      <c r="E67" t="n">
+        <v>105</v>
+      </c>
+      <c r="F67" t="n">
+        <v>19</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2179,7 +2341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3071,6 +3233,60 @@
         <v>1.66</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>44998.53276665509</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>174beta</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>45016.5270653125</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>175beta</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3085,7 +3301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4059,30 +4275,84 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
       <c r="B36" s="11" t="n">
-        <v>44977.83446887095</v>
-      </c>
-      <c r="C36" t="inlineStr">
+        <v>44977.83446886574</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>live173</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>124</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E36" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="5" t="n">
         <v>1.78</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B37" s="11" t="n">
+        <v>44998.83526253473</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>174live</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>45016.79327719907</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>175live</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -2301,30 +2301,138 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="5" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
       <c r="B67" s="11" t="n">
-        <v>45028.5508363341</v>
-      </c>
-      <c r="C67" t="inlineStr">
+        <v>45028.55083633102</v>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
         <is>
           <t>176fstrtail</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>124</v>
-      </c>
-      <c r="E67" t="n">
+      <c r="D67" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E67" s="5" t="n">
         <v>105</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67" s="5" t="n">
         <v>5.66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B68" s="11" t="n">
+        <v>45034.52861362269</v>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>176firsttrail</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B69" s="11" t="n">
+        <v>45034.6366225</v>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>176fstscndtr</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B70" s="11" t="n">
+        <v>45034.65722788194</v>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>176fstscndtr</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B71" s="11" t="n">
+        <v>45034.67370373415</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>176fstscndtr</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>124</v>
+      </c>
+      <c r="E71" t="n">
+        <v>71</v>
+      </c>
+      <c r="F71" t="n">
+        <v>53</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -2409,30 +2409,84 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B71" s="11" t="n">
-        <v>45034.67370373415</v>
-      </c>
-      <c r="C71" t="inlineStr">
+        <v>45034.67370373842</v>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
         <is>
           <t>176fstscndtr</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>124</v>
-      </c>
-      <c r="E71" t="n">
+      <c r="D71" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E71" s="5" t="n">
         <v>71</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71" s="5" t="n">
         <v>53</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71" s="5" t="n">
         <v>1.77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B72" s="11" t="n">
+        <v>45035.69311298611</v>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>176scndcyc</t>
+        </is>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B73" s="11" t="n">
+        <v>45036.40967388889</v>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>176fnlruntest</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -2449,7 +2503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3395,6 +3449,33 @@
         <v>1.85</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="n">
+        <v>45036.51260524306</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>176beta</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3409,7 +3490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4461,6 +4542,33 @@
       </c>
       <c r="G38" s="5" t="n">
         <v>1.62</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>45054.53683669174</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>176htfxtrl</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>124</v>
+      </c>
+      <c r="E39" t="n">
+        <v>123</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.72</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -2489,6 +2489,195 @@
         <v>1.68</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B74" s="11" t="n">
+        <v>45062.82150019676</v>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>177ffstcycle</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B75" s="11" t="n">
+        <v>45063.65644274306</v>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>177scncycle</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B76" s="11" t="n">
+        <v>45064.3649431713</v>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>177fnlrun</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B77" s="11" t="n">
+        <v>45069.6613956713</v>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>177htfx</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B78" s="11" t="n">
+        <v>45071.63017109954</v>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>178dayone</t>
+        </is>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B79" s="11" t="n">
+        <v>45072.56928353009</v>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>178daytwo</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="5" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B80" s="11" t="n">
+        <v>45089.67525391895</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>178daytest</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>124</v>
+      </c>
+      <c r="E80" t="n">
+        <v>124</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2503,7 +2692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3476,6 +3665,33 @@
         <v>1.61</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>45064.4972353125</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>177beta</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3490,7 +3706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4545,30 +4761,57 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
       <c r="B39" s="11" t="n">
-        <v>45054.53683669174</v>
-      </c>
-      <c r="C39" t="inlineStr">
+        <v>45054.53683668982</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>176htfxtrl</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>124</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E39" s="5" t="n">
         <v>123</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="5" t="n">
         <v>1.72</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>45065.58347652778</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>177live</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>1.71</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -2652,30 +2652,57 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="5" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B80" s="11" t="n">
-        <v>45089.67525391895</v>
-      </c>
-      <c r="C80" t="inlineStr">
+        <v>45089.67525392361</v>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
         <is>
           <t>178daytest</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>124</v>
-      </c>
-      <c r="E80" t="n">
-        <v>124</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
+      <c r="D80" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5" t="n">
         <v>1.9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B81" s="11" t="n">
+        <v>45138.39590413195</v>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>180fnlrun</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -2692,7 +2719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3692,6 +3719,33 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B37" s="11" t="n">
+        <v>45139.54474763889</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>180beta</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3706,7 +3760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4812,6 +4866,33 @@
       </c>
       <c r="G40" s="5" t="n">
         <v>1.71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>45139.84310569906</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>180live</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>124</v>
+      </c>
+      <c r="E41" t="n">
+        <v>122</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -2705,6 +2705,438 @@
         <v>2.23</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B82" s="11" t="n">
+        <v>45202.4839616551</v>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>183runscnd</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B83" s="11" t="n">
+        <v>45203.42118585648</v>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>183fnlrun</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="F83" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B84" s="11" t="n">
+        <v>45226.63724229167</v>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>183fstrun</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B85" s="11" t="n">
+        <v>45229.35684127315</v>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>184fnlrun</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F85" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" s="5" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B86" s="11" t="n">
+        <v>45258.7481999537</v>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>185scnddyle</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="F86" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B87" s="11" t="n">
+        <v>45259.33161961805</v>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>185lastcyc</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F87" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G87" s="5" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B88" s="11" t="n">
+        <v>45275.70116611111</v>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>186scndcycle</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>114</v>
+      </c>
+      <c r="F88" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B89" s="11" t="n">
+        <v>45278.43205790509</v>
+      </c>
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>186fnlruun</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="F89" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G89" s="5" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B90" s="11" t="n">
+        <v>45300.61422157408</v>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>187scndcycle</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="F90" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B91" s="11" t="n">
+        <v>45301.34736388889</v>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>187lstcycle</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F91" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" s="5" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B92" s="11" t="n">
+        <v>45323.66405362268</v>
+      </c>
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>188firstcyc</t>
+        </is>
+      </c>
+      <c r="D92" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F92" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B93" s="11" t="n">
+        <v>45324.84621313657</v>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>188scndcycle</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>116</v>
+      </c>
+      <c r="F93" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G93" s="5" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B94" s="11" t="n">
+        <v>45327.4076803125</v>
+      </c>
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>188lstrun</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="F94" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B95" s="11" t="n">
+        <v>45357.73278945602</v>
+      </c>
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>189ffstccycle</t>
+        </is>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E95" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F95" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G95" s="5" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B96" s="11" t="n">
+        <v>45358.55030921297</v>
+      </c>
+      <c r="C96" s="5" t="inlineStr">
+        <is>
+          <t>189scncycle</t>
+        </is>
+      </c>
+      <c r="D96" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F96" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B97" s="11" t="n">
+        <v>45359.36537612269</v>
+      </c>
+      <c r="C97" s="5" t="inlineStr">
+        <is>
+          <t>189fnlrun</t>
+        </is>
+      </c>
+      <c r="D97" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F97" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G97" s="5" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -2719,7 +3151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3746,6 +4178,195 @@
         <v>2.15</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>45203.54969542824</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>183beta</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B39" s="11" t="n">
+        <v>45229.56517851852</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>184beta</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>45259.61028643519</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>185beta</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B41" s="11" t="n">
+        <v>45278.53278493055</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>186beta</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>45301.56715725694</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>187betaa</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>45327.55215049769</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>188beta</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>45359.45820297454</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>189beta</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3760,7 +4381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4869,30 +5490,246 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B41" s="11" t="n">
-        <v>45139.84310569906</v>
-      </c>
-      <c r="C41" t="inlineStr">
+        <v>45139.84310569445</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>180live</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>124</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E41" s="5" t="n">
         <v>122</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="5" t="n">
         <v>1.81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>45203.90432951389</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>183live</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B43" s="11" t="n">
+        <v>45217.56359023148</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>183waf</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>45229.82544511574</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>184lliivvee</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B45" s="11" t="n">
+        <v>45259.87211920139</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>185live</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B46" s="11" t="n">
+        <v>45279.50188547454</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>186livvee</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B47" s="11" t="n">
+        <v>45301.84518016204</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>187live</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B48" s="11" t="n">
+        <v>45327.89076625</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>188live</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B49" s="11" t="n">
+        <v>45359.74154323526</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>189livee</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>124</v>
+      </c>
+      <c r="E49" t="n">
+        <v>117</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3.61</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -3137,6 +3137,245 @@
         <v>2.43</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B98" s="11" t="n">
+        <v>45379.67543482639</v>
+      </c>
+      <c r="C98" s="5" t="inlineStr">
+        <is>
+          <t>190fstcycle</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E98" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F98" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G98" s="5" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B99" s="11" t="n">
+        <v>45380.45811701389</v>
+      </c>
+      <c r="C99" s="5" t="inlineStr">
+        <is>
+          <t>190scndcycle</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E99" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F99" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" s="5" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B100" s="11" t="n">
+        <v>45383.37642226852</v>
+      </c>
+      <c r="C100" s="5" t="inlineStr">
+        <is>
+          <t>190fnlrun</t>
+        </is>
+      </c>
+      <c r="D100" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E100" s="5" t="n">
+        <v>114</v>
+      </c>
+      <c r="F100" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G100" s="5" t="n">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B101" s="11" t="n">
+        <v>45407.45638884259</v>
+      </c>
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>191trail</t>
+        </is>
+      </c>
+      <c r="D101" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E101" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F101" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G101" s="5" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B102" s="11" t="n">
+        <v>45414.48754583333</v>
+      </c>
+      <c r="C102" s="5" t="inlineStr">
+        <is>
+          <t>191fstcycle</t>
+        </is>
+      </c>
+      <c r="D102" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E102" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F102" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B103" s="11" t="n">
+        <v>45415.35241607639</v>
+      </c>
+      <c r="C103" s="5" t="inlineStr">
+        <is>
+          <t>191lstrun</t>
+        </is>
+      </c>
+      <c r="D103" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E103" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F103" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G103" s="5" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B104" s="11" t="n">
+        <v>45418.47901164352</v>
+      </c>
+      <c r="C104" s="5" t="inlineStr"/>
+      <c r="D104" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E104" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F104" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B105" s="11" t="n">
+        <v>45418.48530949074</v>
+      </c>
+      <c r="C105" s="5" t="inlineStr">
+        <is>
+          <t>sampletestevent12</t>
+        </is>
+      </c>
+      <c r="D105" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E105" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F105" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G105" s="5" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B106" s="11" t="n">
+        <v>45418.52386254863</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>191bugfix</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>124</v>
+      </c>
+      <c r="E106" t="n">
+        <v>124</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3151,7 +3390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4367,6 +4606,60 @@
         <v>2.42</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B45" s="11" t="n">
+        <v>45383.54217180556</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>190betatest</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B46" s="11" t="n">
+        <v>45415.61246881945</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>191beta</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -4381,7 +4674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -5706,30 +5999,57 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="5" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
       <c r="B49" s="11" t="n">
-        <v>45359.74154323526</v>
-      </c>
-      <c r="C49" t="inlineStr">
+        <v>45359.74154324074</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
         <is>
           <t>189livee</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>124</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E49" s="5" t="n">
         <v>117</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="5" t="n">
         <v>3.61</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B50" s="11" t="n">
+        <v>45383.8574302662</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>190livee</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>3.65</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -3350,29 +3350,29 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="5" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B106" s="11" t="n">
-        <v>45418.52386254863</v>
-      </c>
-      <c r="C106" t="inlineStr">
+        <v>45418.5238625463</v>
+      </c>
+      <c r="C106" s="5" t="inlineStr">
         <is>
           <t>191bugfix</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>124</v>
-      </c>
-      <c r="E106" t="n">
-        <v>124</v>
-      </c>
-      <c r="F106" t="n">
+      <c r="D106" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="E106" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F106" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106" s="5" t="n">
         <v>2.07</v>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -6050,6 +6050,33 @@
       </c>
       <c r="G50" s="5" t="n">
         <v>3.65</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B51" s="11" t="n">
+        <v>45418.57108991612</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>191live</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>126</v>
+      </c>
+      <c r="E51" t="n">
+        <v>121</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.57</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -3374,6 +3374,33 @@
       </c>
       <c r="G106" s="5" t="n">
         <v>2.07</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B107" s="11" t="n">
+        <v>45467.46333462963</v>
+      </c>
+      <c r="C107" s="5" t="inlineStr">
+        <is>
+          <t>193uifixes</t>
+        </is>
+      </c>
+      <c r="D107" s="5" t="n">
+        <v>126</v>
+      </c>
+      <c r="E107" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="F107" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" s="5" t="n">
+        <v>2.13</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
@@ -4674,7 +4701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -6053,30 +6080,57 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B51" s="11" t="n">
-        <v>45418.57108991612</v>
-      </c>
-      <c r="C51" t="inlineStr">
+        <v>45418.57108991898</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>191live</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="5" t="n">
         <v>126</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="5" t="n">
         <v>121</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51" s="5" t="n">
         <v>2.57</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B52" s="11" t="n">
+        <v>45467.6598797222</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>193livepytest</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>126</v>
+      </c>
+      <c r="E52" t="n">
+        <v>124</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.22</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/HELP_DESK_QUERY_HISTORY_DATA.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
@@ -3403,6 +3403,60 @@
         <v>2.13</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B108" s="11" t="n">
+        <v>45489.64723230324</v>
+      </c>
+      <c r="C108" s="5" t="inlineStr">
+        <is>
+          <t>194fstcycle</t>
+        </is>
+      </c>
+      <c r="D108" s="5" t="n">
+        <v>126</v>
+      </c>
+      <c r="E108" s="5" t="n">
+        <v>126</v>
+      </c>
+      <c r="F108" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="5" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B109" s="11" t="n">
+        <v>45491.30943052084</v>
+      </c>
+      <c r="C109" s="5" t="inlineStr">
+        <is>
+          <t>194fnlrun</t>
+        </is>
+      </c>
+      <c r="D109" s="5" t="n">
+        <v>126</v>
+      </c>
+      <c r="E109" s="5" t="n">
+        <v>126</v>
+      </c>
+      <c r="F109" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -3417,7 +3471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4685,6 +4739,33 @@
       </c>
       <c r="G46" s="5" t="n">
         <v>1.94</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B47" s="11" t="n">
+        <v>45491.60097572308</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>126</v>
+      </c>
+      <c r="E47" t="n">
+        <v>126</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="1048576" ht="15" customHeight="1" s="6"/>
@@ -6107,29 +6188,29 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
       <c r="B52" s="11" t="n">
-        <v>45467.6598797222</v>
-      </c>
-      <c r="C52" t="inlineStr">
+        <v>45467.65987972223</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
         <is>
           <t>193livepytest</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="5" t="n">
         <v>126</v>
       </c>
-      <c r="E52" t="n">
-        <v>124</v>
-      </c>
-      <c r="F52" t="n">
+      <c r="E52" s="5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F52" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52" s="5" t="n">
         <v>2.22</v>
       </c>
     </row>
